--- a/biology/Médecine/Aspartate_aminotransférase/Aspartate_aminotransférase.xlsx
+++ b/biology/Médecine/Aspartate_aminotransférase/Aspartate_aminotransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aspartate_aminotransf%C3%A9rase</t>
+          <t>Aspartate_aminotransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'aspartate aminotransférase (ASAT, ou AST) est une enzyme (EC 2.6.1.1) faisant partie des transaminases dont l'activité est mesurée en biologie clinique lors de certaines maladies. Elle intervient notamment dans la navette malate-aspartate de transfert des électrons du NADH cytosolique vers le NAD+ mitochondrial. Elle se trouve en quantité importante dans les muscles, cardiaque et squelettiques, dans le foie, le rein et le cerveau. Une atteinte de ces différents organes, comme lors d'un infarctus du myocarde ou d'une hépatite, entraîne la libération de cette enzyme dans le sang et l'augmentation de son taux dans le plasma sanguin.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aspartate_aminotransf%C3%A9rase</t>
+          <t>Aspartate_aminotransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Autre nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est également appelée glutamate oxaloacétique transaminase (SGOT ou GOT).
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aspartate_aminotransf%C3%A9rase</t>
+          <t>Aspartate_aminotransférase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Valeur normale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans l'espèce humaine, les ASAT sont comprises généralement entre 20 et 40 UI/l (unités internationales), la fourchette variant selon les laboratoires.</t>
         </is>
